--- a/precios2.xlsx
+++ b/precios2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\controlagro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F404A-EE9D-4BFB-BE83-6CF9FB89B705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71860309-237F-495F-91D2-595393E533DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{676E1655-04D6-4518-841D-CA3DA9354C2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Precio</t>
   </si>
@@ -44,16 +44,22 @@
     <t>Tipo de activación y abono</t>
   </si>
   <si>
-    <t>Señal libre de 35 cm</t>
-  </si>
-  <si>
-    <t>Con ACTIVACION, SIN abono, con 15 CM de PRECISION</t>
-  </si>
-  <si>
-    <t>Con ACTIVACION y  ABONO TRIMESTRAL con 2,5 CM de PRECISION</t>
-  </si>
-  <si>
-    <t>Con ACTIVACION y ABONO ANUAL con 2,5 CM de PRECISION</t>
+    <t>Antena NOVATEL L1-L2 Señal libre de 35 cm</t>
+  </si>
+  <si>
+    <t>SURVEY L1 SIN base portátil RTK</t>
+  </si>
+  <si>
+    <t>SURVEY L1 CON base portátil RTK</t>
+  </si>
+  <si>
+    <t>Antena NOVATEL L1-L2 ACTIVACIÓN SIN abono 15 CM</t>
+  </si>
+  <si>
+    <t>Antena NOVATEL L1-L2 ACTIVACIÓN y  ABONO TRIMESTRAL 2,5 CM</t>
+  </si>
+  <si>
+    <t>Antena NOVATEL L1-L2 ACTIVACIÓN y ABONO ANUAL 2,5 CM</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBDA4A0-11E7-4D74-BDA7-46948E0C69CA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +466,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>17809.2</v>
@@ -468,7 +474,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>18644.100000000002</v>
@@ -476,10 +482,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>19261.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>16575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>13812.5</v>
       </c>
     </row>
   </sheetData>
